--- a/pearson_tables/tp_netherlands_cumul-1-3.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-3.xlsx
@@ -457,11 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.751953396271416</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.5198847247883855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -471,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8185935243844633</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6091627757891376</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5880928718191769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8351667916302047</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6012788223146542</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5419236451752241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7839769935298222</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5452906590489701</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5588212144272588</v>
+        <v>-0.6965100207141295</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7654975071465334</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6077902733295163</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6260127987591341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -535,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7671620555717458</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6080247329947287</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4947154066117904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6741793482236667</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5218972256590284</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6151513242086074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7495455655101855</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.662572767754913</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6585483766579557</v>
+        <v>-0.6324894126781301</v>
       </c>
     </row>
   </sheetData>
